--- a/biology/Zoologie/Epictia_goudotii/Epictia_goudotii.xlsx
+++ b/biology/Zoologie/Epictia_goudotii/Epictia_goudotii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epictia goudotii est une espèce de serpents de la famille des Leptotyphlopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epictia goudotii est une espèce de serpents de la famille des Leptotyphlopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Belize, au Guatemala, au Honduras, au Salvador, au Nicaragua, au Costa Rica, au Panamá, en Colombie, au Venezuela, à Bonaire et à la Trinité[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Belize, au Guatemala, au Honduras, au Salvador, au Nicaragua, au Costa Rica, au Panamá, en Colombie, au Venezuela, à Bonaire et à la Trinité.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent aveugle vivant sous terre, remonte à la surface quand ses galeries souterraines sont inondées.
 Il n'est pas venimeux et se nourrit de petits animaux trouvés dans le sol.
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Epictia goudotii ater[2] a été élevée au rang d'espèce par Savage en 2002[3] et les sous-espèces Epictia goudotii bakewelli[4] et Epictia goudotii phenops[5] par Wallach, Williams et Boundy en 2014[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Epictia goudotii ater a été élevée au rang d'espèce par Savage en 2002 et les sous-espèces Epictia goudotii bakewelli et Epictia goudotii phenops par Wallach, Williams et Boundy en 2014.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Justin-Marie Goudot[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Justin-Marie Goudot.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1844 : Erpétologie générale ou Histoire naturelle complète des reptiles. Librairie encyclopédique Roret, Paris, vol. 6, p. 1-609 (texte intégral).</t>
         </is>
